--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.56261736998334</v>
+        <v>12051.96085662679</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.56261736998334</v>
+        <v>12051.96085662679</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77479.52157143016</v>
+        <v>5170931.928044383</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77479.52157143016</v>
+        <v>5170931.928044383</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113916825.376042</v>
+        <v>43041005.14464642</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13265.19378889826</v>
+        <v>1221819.974402483</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24174.31827572916</v>
+        <v>2035933.784541704</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35080.7080528431</v>
+        <v>2850047.594680926</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46208.99849240111</v>
+        <v>3663345.433385232</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57337.28893195912</v>
+        <v>4476643.272089537</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68465.57937151713</v>
+        <v>5289941.110793842</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79593.86981107513</v>
+        <v>6103238.949498142</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90722.16025063318</v>
+        <v>6916536.788202443</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101855.2338552949</v>
+        <v>7728248.594285591</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112992.8844946613</v>
+        <v>8540982.075079624</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124129.7007540574</v>
+        <v>9353549.514259566</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135266.5170134535</v>
+        <v>10166116.95343951</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146403.3332728496</v>
+        <v>10978684.39261947</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157540.1495322456</v>
+        <v>11791251.83179941</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168675.0611752258</v>
+        <v>12603329.40750792</v>
       </c>
     </row>
   </sheetData>
